--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H2">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I2">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J2">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N2">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q2">
-        <v>16338.02622352119</v>
+        <v>17022.9180489393</v>
       </c>
       <c r="R2">
-        <v>16338.02622352119</v>
+        <v>153206.2624404537</v>
       </c>
       <c r="S2">
-        <v>0.187907515737803</v>
+        <v>0.1814503698201748</v>
       </c>
       <c r="T2">
-        <v>0.187907515737803</v>
+        <v>0.1814503698201747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H3">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I3">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J3">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N3">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q3">
-        <v>68.97241172181751</v>
+        <v>75.61439747894688</v>
       </c>
       <c r="R3">
-        <v>68.97241172181751</v>
+        <v>680.529577310522</v>
       </c>
       <c r="S3">
-        <v>0.0007932680706824331</v>
+        <v>0.000805987571980323</v>
       </c>
       <c r="T3">
-        <v>0.0007932680706824331</v>
+        <v>0.0008059875719803229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H4">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I4">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J4">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N4">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q4">
-        <v>10037.82700768838</v>
+        <v>10101.82428589059</v>
       </c>
       <c r="R4">
-        <v>10037.82700768838</v>
+        <v>90916.41857301533</v>
       </c>
       <c r="S4">
-        <v>0.1154474298557</v>
+        <v>0.1076771765724082</v>
       </c>
       <c r="T4">
-        <v>0.1154474298557</v>
+        <v>0.1076771765724081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H5">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I5">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J5">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N5">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q5">
-        <v>4275.876369922159</v>
+        <v>5907.331922616763</v>
       </c>
       <c r="R5">
-        <v>4275.876369922159</v>
+        <v>53165.98730355087</v>
       </c>
       <c r="S5">
-        <v>0.04917786856758292</v>
+        <v>0.06296732199072798</v>
       </c>
       <c r="T5">
-        <v>0.04917786856758292</v>
+        <v>0.06296732199072796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.18529890904971</v>
+        <v>81.40564966666666</v>
       </c>
       <c r="H6">
-        <v>81.18529890904971</v>
+        <v>244.216949</v>
       </c>
       <c r="I6">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384615</v>
       </c>
       <c r="J6">
-        <v>0.354186941917762</v>
+        <v>0.3537645953384614</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N6">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q6">
-        <v>74.84931121202357</v>
+        <v>81.03243189816155</v>
       </c>
       <c r="R6">
-        <v>74.84931121202357</v>
+        <v>729.291887083454</v>
       </c>
       <c r="S6">
-        <v>0.0008608596859936846</v>
+        <v>0.0008637393831703084</v>
       </c>
       <c r="T6">
-        <v>0.0008608596859936846</v>
+        <v>0.0008637393831703081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H7">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I7">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J7">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N7">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q7">
-        <v>27125.20669711712</v>
+        <v>28217.6184282983</v>
       </c>
       <c r="R7">
-        <v>27125.20669711712</v>
+        <v>253958.5658546847</v>
       </c>
       <c r="S7">
-        <v>0.3119734375864637</v>
+        <v>0.3007767108165301</v>
       </c>
       <c r="T7">
-        <v>0.3119734375864637</v>
+        <v>0.3007767108165299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H8">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I8">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J8">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N8">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q8">
-        <v>114.5114409021769</v>
+        <v>125.3403329330809</v>
       </c>
       <c r="R8">
-        <v>114.5114409021769</v>
+        <v>1128.062996397728</v>
       </c>
       <c r="S8">
-        <v>0.001317023249265346</v>
+        <v>0.001336025333536073</v>
       </c>
       <c r="T8">
-        <v>0.001317023249265346</v>
+        <v>0.001336025333536072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H9">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I9">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J9">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N9">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q9">
-        <v>16665.30146594234</v>
+        <v>16745.0387947288</v>
       </c>
       <c r="R9">
-        <v>16665.30146594234</v>
+        <v>150705.3491525592</v>
       </c>
       <c r="S9">
-        <v>0.1916715859458254</v>
+        <v>0.178488404468706</v>
       </c>
       <c r="T9">
-        <v>0.1916715859458254</v>
+        <v>0.178488404468706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H10">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I10">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J10">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N10">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q10">
-        <v>7099.023392340987</v>
+        <v>9792.142430721044</v>
       </c>
       <c r="R10">
-        <v>7099.023392340987</v>
+        <v>88129.28187648939</v>
       </c>
       <c r="S10">
-        <v>0.08164755225443929</v>
+        <v>0.1043762215313532</v>
       </c>
       <c r="T10">
-        <v>0.08164755225443929</v>
+        <v>0.1043762215313531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>134.78788585275</v>
+        <v>134.9400586666667</v>
       </c>
       <c r="H11">
-        <v>134.78788585275</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I11">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429074</v>
       </c>
       <c r="J11">
-        <v>0.5880388412590338</v>
+        <v>0.5864091183429073</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N11">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q11">
-        <v>124.2685627986103</v>
+        <v>134.3214034776996</v>
       </c>
       <c r="R11">
-        <v>124.2685627986103</v>
+        <v>1208.892631299296</v>
       </c>
       <c r="S11">
-        <v>0.001429242223040171</v>
+        <v>0.001431756192782245</v>
       </c>
       <c r="T11">
-        <v>0.001429242223040171</v>
+        <v>0.001431756192782245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H12">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I12">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J12">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N12">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q12">
-        <v>16.40495320217716</v>
+        <v>12.66676504786467</v>
       </c>
       <c r="R12">
-        <v>16.40495320217716</v>
+        <v>114.000885430782</v>
       </c>
       <c r="S12">
-        <v>0.0001886772587975231</v>
+        <v>0.0001350173451903283</v>
       </c>
       <c r="T12">
-        <v>0.0001886772587975231</v>
+        <v>0.0001350173451903283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H13">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I13">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J13">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N13">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q13">
-        <v>0.06925494983652021</v>
+        <v>0.05626472525733333</v>
       </c>
       <c r="R13">
-        <v>0.06925494983652021</v>
+        <v>0.506382527316</v>
       </c>
       <c r="S13">
-        <v>7.965176085708345E-07</v>
+        <v>5.997359075819437E-07</v>
       </c>
       <c r="T13">
-        <v>7.965176085708345E-07</v>
+        <v>5.997359075819437E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H14">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I14">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J14">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N14">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q14">
-        <v>10.07894589345249</v>
+        <v>7.516774410610666</v>
       </c>
       <c r="R14">
-        <v>10.07894589345249</v>
+        <v>67.650969695496</v>
       </c>
       <c r="S14">
-        <v>0.0001159203479161885</v>
+        <v>8.012266126988244E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001159203479161885</v>
+        <v>8.012266126988244E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H15">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I15">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J15">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N15">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q15">
-        <v>4.293392040580918</v>
+        <v>4.395649753374666</v>
       </c>
       <c r="R15">
-        <v>4.293392040580918</v>
+        <v>39.560847780372</v>
       </c>
       <c r="S15">
-        <v>4.937932045136252E-05</v>
+        <v>4.685402767356278E-05</v>
       </c>
       <c r="T15">
-        <v>4.937932045136252E-05</v>
+        <v>4.685402767356277E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0815178658111301</v>
+        <v>0.060574</v>
       </c>
       <c r="H16">
-        <v>0.0815178658111301</v>
+        <v>0.181722</v>
       </c>
       <c r="I16">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="J16">
-        <v>0.0003556378308793568</v>
+        <v>0.0002632364791114309</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N16">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q16">
-        <v>0.075155923417523</v>
+        <v>0.06029628840133333</v>
       </c>
       <c r="R16">
-        <v>0.075155923417523</v>
+        <v>0.5426665956119999</v>
       </c>
       <c r="S16">
-        <v>8.643861057118351E-07</v>
+        <v>6.427090700755367E-07</v>
       </c>
       <c r="T16">
-        <v>8.643861057118351E-07</v>
+        <v>6.427090700755366E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H17">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I17">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J17">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N17">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q17">
-        <v>2648.618958718542</v>
+        <v>24.37398371362422</v>
       </c>
       <c r="R17">
-        <v>2648.618958718542</v>
+        <v>219.365853422618</v>
       </c>
       <c r="S17">
-        <v>0.03046239502005059</v>
+        <v>0.0002598067115234459</v>
       </c>
       <c r="T17">
-        <v>0.03046239502005059</v>
+        <v>0.0002598067115234457</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H18">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I18">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J18">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N18">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q18">
-        <v>11.18137740848693</v>
+        <v>0.1082672246537778</v>
       </c>
       <c r="R18">
-        <v>11.18137740848693</v>
+        <v>0.974405021884</v>
       </c>
       <c r="S18">
-        <v>0.0001285996743187225</v>
+        <v>1.154039976950721E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001285996743187225</v>
+        <v>1.154039976950721E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H19">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I19">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J19">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N19">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q19">
-        <v>1627.269937823036</v>
+        <v>14.46413005774489</v>
       </c>
       <c r="R19">
-        <v>1627.269937823036</v>
+        <v>130.177170519704</v>
       </c>
       <c r="S19">
-        <v>0.01871561761915416</v>
+        <v>0.0001541757847015219</v>
       </c>
       <c r="T19">
-        <v>0.01871561761915416</v>
+        <v>0.0001541757847015218</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1612545431083</v>
+        <v>0.1165593333333333</v>
       </c>
       <c r="H20">
-        <v>13.1612545431083</v>
+        <v>0.349678</v>
       </c>
       <c r="I20">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055423</v>
       </c>
       <c r="J20">
-        <v>0.05741857899232491</v>
+        <v>0.0005065319859055422</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N20">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q20">
-        <v>693.1784209164792</v>
+        <v>8.458315528447555</v>
       </c>
       <c r="R20">
-        <v>693.1784209164792</v>
+        <v>76.124839756028</v>
       </c>
       <c r="S20">
-        <v>0.007972409473180318</v>
+        <v>9.015871875081765E-05</v>
       </c>
       <c r="T20">
-        <v>0.007972409473180318</v>
+        <v>9.015871875081762E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1165593333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.349678</v>
+      </c>
+      <c r="I21">
+        <v>0.0005065319859055423</v>
+      </c>
+      <c r="J21">
+        <v>0.0005065319859055422</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9954153333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.986246</v>
+      </c>
+      <c r="O21">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="P21">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="Q21">
+        <v>0.1160249476431111</v>
+      </c>
+      <c r="R21">
+        <v>1.044224528788</v>
+      </c>
+      <c r="S21">
+        <v>1.236730952806339E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.236730952806339E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.589642</v>
+      </c>
+      <c r="H22">
+        <v>40.768926</v>
+      </c>
+      <c r="I22">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J22">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>209.1122436666667</v>
+      </c>
+      <c r="N22">
+        <v>627.336731</v>
+      </c>
+      <c r="O22">
+        <v>0.5129127453994473</v>
+      </c>
+      <c r="P22">
+        <v>0.5129127453994472</v>
+      </c>
+      <c r="Q22">
+        <v>2841.760529246767</v>
+      </c>
+      <c r="R22">
+        <v>25575.84476322091</v>
+      </c>
+      <c r="S22">
+        <v>0.03029084070602872</v>
+      </c>
+      <c r="T22">
+        <v>0.03029084070602871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.589642</v>
+      </c>
+      <c r="H23">
+        <v>40.768926</v>
+      </c>
+      <c r="I23">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J23">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9288593333333334</v>
+      </c>
+      <c r="N23">
+        <v>2.786578</v>
+      </c>
+      <c r="O23">
+        <v>0.00227831609663822</v>
+      </c>
+      <c r="P23">
+        <v>0.00227831609663822</v>
+      </c>
+      <c r="Q23">
+        <v>12.62286580835867</v>
+      </c>
+      <c r="R23">
+        <v>113.605792275228</v>
+      </c>
+      <c r="S23">
+        <v>0.0001345494152372916</v>
+      </c>
+      <c r="T23">
+        <v>0.0001345494152372916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.589642</v>
+      </c>
+      <c r="H24">
+        <v>40.768926</v>
+      </c>
+      <c r="I24">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J24">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.0924226666667</v>
+      </c>
+      <c r="N24">
+        <v>372.277268</v>
+      </c>
+      <c r="O24">
+        <v>0.3043752201075658</v>
+      </c>
+      <c r="P24">
+        <v>0.3043752201075658</v>
+      </c>
+      <c r="Q24">
+        <v>1686.371598952685</v>
+      </c>
+      <c r="R24">
+        <v>15177.34439057417</v>
+      </c>
+      <c r="S24">
+        <v>0.0179753406204802</v>
+      </c>
+      <c r="T24">
+        <v>0.0179753406204802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1612545431083</v>
-      </c>
-      <c r="H21">
-        <v>13.1612545431083</v>
-      </c>
-      <c r="I21">
-        <v>0.05741857899232491</v>
-      </c>
-      <c r="J21">
-        <v>0.05741857899232491</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.921956465244721</v>
-      </c>
-      <c r="N21">
-        <v>0.921956465244721</v>
-      </c>
-      <c r="O21">
-        <v>0.002430523500760697</v>
-      </c>
-      <c r="P21">
-        <v>0.002430523500760697</v>
-      </c>
-      <c r="Q21">
-        <v>12.13410371675015</v>
-      </c>
-      <c r="R21">
-        <v>12.13410371675015</v>
-      </c>
-      <c r="S21">
-        <v>0.0001395572056211302</v>
-      </c>
-      <c r="T21">
-        <v>0.0001395572056211302</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.589642</v>
+      </c>
+      <c r="H25">
+        <v>40.768926</v>
+      </c>
+      <c r="I25">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J25">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>72.56660866666667</v>
+      </c>
+      <c r="N25">
+        <v>217.699826</v>
+      </c>
+      <c r="O25">
+        <v>0.1779921530318332</v>
+      </c>
+      <c r="P25">
+        <v>0.1779921530318332</v>
+      </c>
+      <c r="Q25">
+        <v>986.1542329340973</v>
+      </c>
+      <c r="R25">
+        <v>8875.388096406876</v>
+      </c>
+      <c r="S25">
+        <v>0.01051159676332768</v>
+      </c>
+      <c r="T25">
+        <v>0.01051159676332768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.589642</v>
+      </c>
+      <c r="H26">
+        <v>40.768926</v>
+      </c>
+      <c r="I26">
+        <v>0.05905651785361418</v>
+      </c>
+      <c r="J26">
+        <v>0.05905651785361417</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9954153333333333</v>
+      </c>
+      <c r="N26">
+        <v>2.986246</v>
+      </c>
+      <c r="O26">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="P26">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="Q26">
+        <v>13.52733802131067</v>
+      </c>
+      <c r="R26">
+        <v>121.746042191796</v>
+      </c>
+      <c r="S26">
+        <v>0.0001441903485402889</v>
+      </c>
+      <c r="T26">
+        <v>0.0001441903485402888</v>
       </c>
     </row>
   </sheetData>
